--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\SQL\ORACLE-SQL-2019-08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ORACLE-SQL-2019-08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40C330-EE2A-4D6B-BF27-965A18451A6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11892"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -102,11 +103,14 @@
   <si>
     <t>[S1-ORCIN] INTRODUCCIÓN A SQL</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,12 +312,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -325,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -614,7 +618,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -659,63 +669,419 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000040C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000050C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000070C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3080" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000080C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3074" name="Control 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3074"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3081" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -748,21 +1114,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3075" name="Control 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3075"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3082" name="Control 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -795,21 +1164,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3076" name="Control 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3076"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3083" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -842,21 +1214,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3077" name="Control 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3077"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3084" name="Control 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -889,21 +1264,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3078" name="Control 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3078"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3085" name="Control 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -936,21 +1314,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3079" name="Control 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3079"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3086" name="Control 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -983,21 +1364,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3080" name="Control 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3080"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3087" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1030,21 +1414,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3081" name="Control 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3081"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3088" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000100C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1077,21 +1464,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3082" name="Control 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3082"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3089" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000110C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1124,21 +1514,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3083" name="Control 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3083"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3090" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000120C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1171,21 +1564,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3084" name="Control 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3084"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3091" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000130C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1218,21 +1614,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3085" name="Control 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3085"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3092" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000140C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1265,21 +1664,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3086" name="Control 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3086"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3093" name="Control 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000150C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1312,21 +1714,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3087" name="Control 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3087"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3094" name="Control 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000160C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1359,21 +1764,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3088" name="Control 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3088"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3095" name="Control 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000170C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1406,21 +1814,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3089" name="Control 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3089"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3096" name="Control 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000180C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,21 +1864,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3090" name="Control 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3090"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3097" name="Control 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000190C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,21 +1914,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3091" name="Control 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3091"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3098" name="Control 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1547,21 +1964,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3092" name="Control 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3092"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3099" name="Control 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1594,21 +2014,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3093" name="Control 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3093"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3100" name="Control 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1641,21 +2064,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3094" name="Control 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3094"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3101" name="Control 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1688,21 +2114,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3095" name="Control 23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3095"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3102" name="Control 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1735,21 +2164,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3096" name="Control 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3096"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3103" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1782,21 +2214,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3097" name="Control 25" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3097"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3104" name="Control 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000200C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1829,21 +2264,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3098" name="Control 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3098"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3105" name="Control 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000210C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1876,21 +2314,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3099" name="Control 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3099"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3106" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000220C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1923,21 +2364,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3100" name="Control 28" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3100"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3107" name="Control 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000230C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1970,21 +2414,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3101" name="Control 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3101"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3108" name="Control 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000240C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2017,21 +2464,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3102" name="Control 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3102"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3109" name="Control 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000250C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2064,21 +2514,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3103" name="Control 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3103"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3110" name="Control 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000260C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2111,21 +2564,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3104" name="Control 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3104"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3111" name="Control 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000270C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2158,21 +2614,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3105" name="Control 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3105"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3112" name="Control 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000280C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2205,21 +2664,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3106" name="Control 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3106"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3113" name="Control 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000290C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2252,21 +2714,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3107" name="Control 35" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3107"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3114" name="Control 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2299,21 +2764,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3108" name="Control 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3108"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3115" name="Control 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2346,21 +2814,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3109" name="Control 37" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3109"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3116" name="Control 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2393,21 +2864,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3110" name="Control 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3110"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3117" name="Control 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2440,21 +2914,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3111" name="Control 39" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3111"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3118" name="Control 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2487,21 +2964,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3112" name="Control 40" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3112"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3119" name="Control 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2534,21 +3014,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3113" name="Control 41" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3113"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3120" name="Control 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000300C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2581,21 +3064,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3114" name="Control 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3114"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3121" name="Control 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000310C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2628,21 +3114,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3115" name="Control 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3115"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3122" name="Control 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000320C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2675,21 +3164,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3116" name="Control 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3116"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3123" name="Control 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000330C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2722,21 +3214,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3117" name="Control 45" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3117"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3124" name="Control 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000340C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2769,21 +3264,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3118" name="Control 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3118"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3125" name="Control 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000350C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2816,21 +3314,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3119" name="Control 47" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3119"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3126" name="Control 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000360C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2863,21 +3364,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3120" name="Control 48" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3120"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3127" name="Control 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000370C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2910,21 +3414,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3121" name="Control 49" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3121"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3128" name="Control 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000380C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2957,21 +3464,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3122" name="Control 50" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3122"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3129" name="Control 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000390C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3004,21 +3514,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3123" name="Control 51" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3123"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3130" name="Control 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3051,21 +3564,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3124" name="Control 52" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3124"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3131" name="Control 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3098,21 +3614,24 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3125" name="Control 53" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3125"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3132" name="Control 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3145,21 +3664,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3126" name="Control 54" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3126"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3133" name="Control 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3192,21 +3714,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3127" name="Control 55" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3127"/>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3134" name="Control 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3239,343 +3764,14 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3128" name="Control 56" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3128"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3129" name="Control 57" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3129"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3130" name="Control 58" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3130"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3131" name="Control 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3131"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3132" name="Control 60" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3132"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3133" name="Control 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3133"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3134" name="Control 62" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3134"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3583,6 +3779,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3874,7 +4073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3884,33 +4083,33 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
@@ -3924,11 +4123,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="12">
         <v>201908</v>
       </c>
@@ -3942,13 +4141,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -3968,7 +4167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -3977,10 +4176,12 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -3989,10 +4190,12 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -4001,10 +4204,12 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -4013,10 +4218,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -4025,10 +4232,12 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -4037,10 +4246,12 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
@@ -4049,10 +4260,12 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -4061,10 +4274,12 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -4073,10 +4288,12 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -4085,7 +4302,9 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
   </sheetData>
@@ -4098,7 +4317,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201902&amp;CurSec=S1&amp;CurCod=ADBDS&amp;Anno=2019"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201902&amp;CurSec=S1&amp;CurCod=ADBDS&amp;Anno=2019" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
@@ -4108,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -4116,148 +4335,148 @@
       <selection activeCell="B12" sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>10</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -4273,16 +4492,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B5" r:id="rId5" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B6" r:id="rId6" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B7" r:id="rId7" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B9" r:id="rId9" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
-    <hyperlink ref="B10" r:id="rId10" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId9" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId10" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201908&amp;CurSec=S1&amp;CurCod=ORCIN&amp;Anno=2019" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -4292,7 +4511,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="3135" r:id="rId14" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId15">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -4302,1559 +4521,1559 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3135" r:id="rId14" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3134" r:id="rId16" name="Control 62">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3135" r:id="rId14" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3134" r:id="rId16" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3134" r:id="rId16" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3133" r:id="rId17" name="Control 61">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3133" r:id="rId17" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3132" r:id="rId18" name="Control 60">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3132" r:id="rId18" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3131" r:id="rId19" name="Control 59">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3131" r:id="rId19" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3130" r:id="rId20" name="Control 58">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3130" r:id="rId20" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3129" r:id="rId21" name="Control 57">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3129" r:id="rId21" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3128" r:id="rId22" name="Control 56">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3134" r:id="rId16" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3133" r:id="rId17" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3128" r:id="rId22" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3127" r:id="rId23" name="Control 55">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3127" r:id="rId23" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3126" r:id="rId24" name="Control 54">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3126" r:id="rId24" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3125" r:id="rId25" name="Control 53">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3125" r:id="rId25" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3124" r:id="rId26" name="Control 52">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3124" r:id="rId26" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3123" r:id="rId27" name="Control 51">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3123" r:id="rId27" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3122" r:id="rId28" name="Control 50">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3122" r:id="rId28" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3121" r:id="rId29" name="Control 49">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3121" r:id="rId29" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3120" r:id="rId30" name="Control 48">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3133" r:id="rId17" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3132" r:id="rId18" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3120" r:id="rId30" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3119" r:id="rId31" name="Control 47">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3119" r:id="rId31" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3118" r:id="rId32" name="Control 46">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3132" r:id="rId18" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3131" r:id="rId19" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3118" r:id="rId32" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3117" r:id="rId33" name="Control 45">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3131" r:id="rId19" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3130" r:id="rId20" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3117" r:id="rId33" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3116" r:id="rId34" name="Control 44">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3130" r:id="rId20" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3129" r:id="rId21" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3116" r:id="rId34" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3115" r:id="rId35" name="Control 43">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3129" r:id="rId21" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3128" r:id="rId22" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3115" r:id="rId35" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3114" r:id="rId36" name="Control 42">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3128" r:id="rId22" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3127" r:id="rId23" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3114" r:id="rId36" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3113" r:id="rId37" name="Control 41">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3127" r:id="rId23" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3126" r:id="rId24" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3113" r:id="rId37" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3112" r:id="rId38" name="Control 40">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3126" r:id="rId24" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3125" r:id="rId25" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3112" r:id="rId38" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3111" r:id="rId39" name="Control 39">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3125" r:id="rId25" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3124" r:id="rId26" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3111" r:id="rId39" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3110" r:id="rId40" name="Control 38">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3124" r:id="rId26" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3123" r:id="rId27" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3110" r:id="rId40" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3109" r:id="rId41" name="Control 37">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3123" r:id="rId27" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3122" r:id="rId28" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3109" r:id="rId41" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3108" r:id="rId42" name="Control 36">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3122" r:id="rId28" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3121" r:id="rId29" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3108" r:id="rId42" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3107" r:id="rId43" name="Control 35">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3121" r:id="rId29" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3120" r:id="rId30" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3107" r:id="rId43" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3106" r:id="rId44" name="Control 34">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3120" r:id="rId30" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3119" r:id="rId31" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3106" r:id="rId44" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3105" r:id="rId45" name="Control 33">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3119" r:id="rId31" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3118" r:id="rId32" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3105" r:id="rId45" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3104" r:id="rId46" name="Control 32">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3118" r:id="rId32" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3117" r:id="rId33" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3104" r:id="rId46" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3103" r:id="rId47" name="Control 31">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3117" r:id="rId33" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3116" r:id="rId34" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3103" r:id="rId47" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3102" r:id="rId48" name="Control 30">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3116" r:id="rId34" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3115" r:id="rId35" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3102" r:id="rId48" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3101" r:id="rId49" name="Control 29">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3115" r:id="rId35" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3114" r:id="rId36" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3101" r:id="rId49" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3100" r:id="rId50" name="Control 28">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3114" r:id="rId36" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3113" r:id="rId37" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3100" r:id="rId50" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3099" r:id="rId51" name="Control 27">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3113" r:id="rId37" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3112" r:id="rId38" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3099" r:id="rId51" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3098" r:id="rId52" name="Control 26">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3112" r:id="rId38" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3111" r:id="rId39" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3098" r:id="rId52" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3097" r:id="rId53" name="Control 25">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3111" r:id="rId39" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3110" r:id="rId40" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3097" r:id="rId53" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3096" r:id="rId54" name="Control 24">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3110" r:id="rId40" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3109" r:id="rId41" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3096" r:id="rId54" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3095" r:id="rId55" name="Control 23">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3109" r:id="rId41" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3108" r:id="rId42" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3095" r:id="rId55" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3094" r:id="rId56" name="Control 22">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3108" r:id="rId42" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3107" r:id="rId43" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3094" r:id="rId56" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3093" r:id="rId57" name="Control 21">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3107" r:id="rId43" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3106" r:id="rId44" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3093" r:id="rId57" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3092" r:id="rId58" name="Control 20">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3106" r:id="rId44" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3105" r:id="rId45" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3092" r:id="rId58" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3091" r:id="rId59" name="Control 19">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3105" r:id="rId45" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3104" r:id="rId46" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3091" r:id="rId59" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3090" r:id="rId60" name="Control 18">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3104" r:id="rId46" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3103" r:id="rId47" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3090" r:id="rId60" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3089" r:id="rId61" name="Control 17">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3103" r:id="rId47" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3102" r:id="rId48" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3089" r:id="rId61" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3088" r:id="rId62" name="Control 16">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3102" r:id="rId48" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3101" r:id="rId49" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3088" r:id="rId62" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3087" r:id="rId63" name="Control 15">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3101" r:id="rId49" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3100" r:id="rId50" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3087" r:id="rId63" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3086" r:id="rId64" name="Control 14">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3100" r:id="rId50" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3099" r:id="rId51" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3086" r:id="rId64" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3085" r:id="rId65" name="Control 13">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3099" r:id="rId51" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3098" r:id="rId52" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3085" r:id="rId65" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3084" r:id="rId66" name="Control 12">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3098" r:id="rId52" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3097" r:id="rId53" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3084" r:id="rId66" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3083" r:id="rId67" name="Control 11">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3097" r:id="rId53" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3096" r:id="rId54" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3083" r:id="rId67" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3082" r:id="rId68" name="Control 10">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3096" r:id="rId54" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3095" r:id="rId55" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3082" r:id="rId68" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3081" r:id="rId69" name="Control 9">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3095" r:id="rId55" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3094" r:id="rId56" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3081" r:id="rId69" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3080" r:id="rId70" name="Control 8">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3094" r:id="rId56" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3093" r:id="rId57" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3080" r:id="rId70" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3079" r:id="rId71" name="Control 7">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3093" r:id="rId57" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3092" r:id="rId58" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3079" r:id="rId71" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId72" name="Control 6">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3092" r:id="rId58" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3091" r:id="rId59" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId72" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId73" name="Control 5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3091" r:id="rId59" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId60" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId73" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId74" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3090" r:id="rId60" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3089" r:id="rId61" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId74" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId75" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3089" r:id="rId61" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId62" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId75" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId76" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3088" r:id="rId62" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3087" r:id="rId63" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId15">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId76" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId77" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3087" r:id="rId63" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3086" r:id="rId64" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3086" r:id="rId64" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3085" r:id="rId65" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3085" r:id="rId65" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId66" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3084" r:id="rId66" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId67" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3083" r:id="rId67" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId68" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3082" r:id="rId68" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId69" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3081" r:id="rId69" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId70" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3080" r:id="rId70" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId71" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3079" r:id="rId71" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId72" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3078" r:id="rId72" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId73" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId73" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId74" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId74" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId75" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId75" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId76" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId76" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId77" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5869,19 +6088,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5889,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5897,7 +6116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5905,7 +6124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5913,7 +6132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5921,7 +6140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5929,7 +6148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5937,7 +6156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5945,7 +6164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5953,7 +6172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ORACLE-SQL-2019-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40C330-EE2A-4D6B-BF27-965A18451A6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB6D53-E9D3-4C4E-887B-B962DC9E770D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja2" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF868BA1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF868BA1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -265,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4077,13 +4086,13 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,169 +4156,239 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="24">
+        <v>43732</v>
+      </c>
+      <c r="D8" s="24">
+        <v>43708</v>
+      </c>
+      <c r="E8" s="24">
+        <v>43715</v>
+      </c>
+      <c r="F8" s="24">
+        <v>43722</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2</v>
+      <c r="A10" s="2">
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>3</v>
+      <c r="A11" s="3">
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>4</v>
+      <c r="A12" s="2">
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>5</v>
+      <c r="A13" s="3">
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>6</v>
+      <c r="A14" s="2">
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>7</v>
+      <c r="A15" s="3">
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>8</v>
+      <c r="A16" s="2">
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>9</v>
+      <c r="A17" s="3">
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A9:F24">
-    <sortCondition ref="B9:B24"/>
+  <sortState ref="A10:F25">
+    <sortCondition ref="B10:B25"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A3:F3"/>
@@ -4510,19 +4589,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3135" r:id="rId14" name="Control 63">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3073" r:id="rId14" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4530,24 +4609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3135" r:id="rId14" name="Control 63"/>
+        <control shapeId="3073" r:id="rId14" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3134" r:id="rId16" name="Control 62">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3074" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4555,24 +4634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3134" r:id="rId16" name="Control 62"/>
+        <control shapeId="3074" r:id="rId16" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3133" r:id="rId17" name="Control 61">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3075" r:id="rId17" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4580,24 +4659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3133" r:id="rId17" name="Control 61"/>
+        <control shapeId="3075" r:id="rId17" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3132" r:id="rId18" name="Control 60">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3076" r:id="rId18" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4605,24 +4684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3132" r:id="rId18" name="Control 60"/>
+        <control shapeId="3076" r:id="rId18" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3131" r:id="rId19" name="Control 59">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3077" r:id="rId19" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4630,24 +4709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3131" r:id="rId19" name="Control 59"/>
+        <control shapeId="3077" r:id="rId19" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3130" r:id="rId20" name="Control 58">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3078" r:id="rId20" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4655,24 +4734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3130" r:id="rId20" name="Control 58"/>
+        <control shapeId="3078" r:id="rId20" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3129" r:id="rId21" name="Control 57">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3079" r:id="rId21" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4680,24 +4759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3129" r:id="rId21" name="Control 57"/>
+        <control shapeId="3079" r:id="rId21" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3128" r:id="rId22" name="Control 56">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3080" r:id="rId22" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4705,24 +4784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3128" r:id="rId22" name="Control 56"/>
+        <control shapeId="3080" r:id="rId22" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3127" r:id="rId23" name="Control 55">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3081" r:id="rId23" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4730,24 +4809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3127" r:id="rId23" name="Control 55"/>
+        <control shapeId="3081" r:id="rId23" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3126" r:id="rId24" name="Control 54">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3082" r:id="rId24" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4755,24 +4834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3126" r:id="rId24" name="Control 54"/>
+        <control shapeId="3082" r:id="rId24" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3125" r:id="rId25" name="Control 53">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3083" r:id="rId25" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4780,24 +4859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3125" r:id="rId25" name="Control 53"/>
+        <control shapeId="3083" r:id="rId25" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3124" r:id="rId26" name="Control 52">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3084" r:id="rId26" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4805,24 +4884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3124" r:id="rId26" name="Control 52"/>
+        <control shapeId="3084" r:id="rId26" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3123" r:id="rId27" name="Control 51">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3085" r:id="rId27" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4830,24 +4909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3123" r:id="rId27" name="Control 51"/>
+        <control shapeId="3085" r:id="rId27" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3122" r:id="rId28" name="Control 50">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3086" r:id="rId28" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4855,24 +4934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3122" r:id="rId28" name="Control 50"/>
+        <control shapeId="3086" r:id="rId28" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3121" r:id="rId29" name="Control 49">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3087" r:id="rId29" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4880,24 +4959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3121" r:id="rId29" name="Control 49"/>
+        <control shapeId="3087" r:id="rId29" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3120" r:id="rId30" name="Control 48">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3088" r:id="rId30" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4905,24 +4984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3120" r:id="rId30" name="Control 48"/>
+        <control shapeId="3088" r:id="rId30" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3119" r:id="rId31" name="Control 47">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3089" r:id="rId31" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4930,24 +5009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3119" r:id="rId31" name="Control 47"/>
+        <control shapeId="3089" r:id="rId31" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3118" r:id="rId32" name="Control 46">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3090" r:id="rId32" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4955,24 +5034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3118" r:id="rId32" name="Control 46"/>
+        <control shapeId="3090" r:id="rId32" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3117" r:id="rId33" name="Control 45">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3091" r:id="rId33" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -4980,24 +5059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3117" r:id="rId33" name="Control 45"/>
+        <control shapeId="3091" r:id="rId33" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3116" r:id="rId34" name="Control 44">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3092" r:id="rId34" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5005,24 +5084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3116" r:id="rId34" name="Control 44"/>
+        <control shapeId="3092" r:id="rId34" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3115" r:id="rId35" name="Control 43">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3093" r:id="rId35" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5030,24 +5109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3115" r:id="rId35" name="Control 43"/>
+        <control shapeId="3093" r:id="rId35" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3114" r:id="rId36" name="Control 42">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3094" r:id="rId36" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5055,24 +5134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3114" r:id="rId36" name="Control 42"/>
+        <control shapeId="3094" r:id="rId36" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3113" r:id="rId37" name="Control 41">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3095" r:id="rId37" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5080,24 +5159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3113" r:id="rId37" name="Control 41"/>
+        <control shapeId="3095" r:id="rId37" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3112" r:id="rId38" name="Control 40">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3096" r:id="rId38" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5105,24 +5184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3112" r:id="rId38" name="Control 40"/>
+        <control shapeId="3096" r:id="rId38" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3111" r:id="rId39" name="Control 39">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3097" r:id="rId39" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5130,24 +5209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3111" r:id="rId39" name="Control 39"/>
+        <control shapeId="3097" r:id="rId39" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3110" r:id="rId40" name="Control 38">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3098" r:id="rId40" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5155,24 +5234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3110" r:id="rId40" name="Control 38"/>
+        <control shapeId="3098" r:id="rId40" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3109" r:id="rId41" name="Control 37">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3099" r:id="rId41" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5180,24 +5259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3109" r:id="rId41" name="Control 37"/>
+        <control shapeId="3099" r:id="rId41" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3108" r:id="rId42" name="Control 36">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3100" r:id="rId42" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5205,22 +5284,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3108" r:id="rId42" name="Control 36"/>
+        <control shapeId="3100" r:id="rId42" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3107" r:id="rId43" name="Control 35">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3101" r:id="rId43" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -5230,22 +5309,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3107" r:id="rId43" name="Control 35"/>
+        <control shapeId="3101" r:id="rId43" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3106" r:id="rId44" name="Control 34">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3102" r:id="rId44" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -5255,22 +5334,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3106" r:id="rId44" name="Control 34"/>
+        <control shapeId="3102" r:id="rId44" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3105" r:id="rId45" name="Control 33">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3103" r:id="rId45" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -5280,13 +5359,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3105" r:id="rId45" name="Control 33"/>
+        <control shapeId="3103" r:id="rId45" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="3104" r:id="rId46" name="Control 32">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -5310,17 +5389,17 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3103" r:id="rId47" name="Control 31">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3105" r:id="rId47" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -5330,22 +5409,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3103" r:id="rId47" name="Control 31"/>
+        <control shapeId="3105" r:id="rId47" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3102" r:id="rId48" name="Control 30">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3106" r:id="rId48" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -5355,22 +5434,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3102" r:id="rId48" name="Control 30"/>
+        <control shapeId="3106" r:id="rId48" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3101" r:id="rId49" name="Control 29">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3107" r:id="rId49" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -5380,24 +5459,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3101" r:id="rId49" name="Control 29"/>
+        <control shapeId="3107" r:id="rId49" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3100" r:id="rId50" name="Control 28">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3108" r:id="rId50" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5405,24 +5484,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3100" r:id="rId50" name="Control 28"/>
+        <control shapeId="3108" r:id="rId50" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3099" r:id="rId51" name="Control 27">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3109" r:id="rId51" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5430,24 +5509,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3099" r:id="rId51" name="Control 27"/>
+        <control shapeId="3109" r:id="rId51" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3098" r:id="rId52" name="Control 26">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3110" r:id="rId52" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5455,24 +5534,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3098" r:id="rId52" name="Control 26"/>
+        <control shapeId="3110" r:id="rId52" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3097" r:id="rId53" name="Control 25">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3111" r:id="rId53" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5480,24 +5559,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3097" r:id="rId53" name="Control 25"/>
+        <control shapeId="3111" r:id="rId53" name="Control 39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3096" r:id="rId54" name="Control 24">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3112" r:id="rId54" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5505,24 +5584,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3096" r:id="rId54" name="Control 24"/>
+        <control shapeId="3112" r:id="rId54" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3095" r:id="rId55" name="Control 23">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3113" r:id="rId55" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5530,24 +5609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3095" r:id="rId55" name="Control 23"/>
+        <control shapeId="3113" r:id="rId55" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3094" r:id="rId56" name="Control 22">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3114" r:id="rId56" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5555,24 +5634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3094" r:id="rId56" name="Control 22"/>
+        <control shapeId="3114" r:id="rId56" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3093" r:id="rId57" name="Control 21">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3115" r:id="rId57" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5580,24 +5659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3093" r:id="rId57" name="Control 21"/>
+        <control shapeId="3115" r:id="rId57" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3092" r:id="rId58" name="Control 20">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3116" r:id="rId58" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5605,24 +5684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3092" r:id="rId58" name="Control 20"/>
+        <control shapeId="3116" r:id="rId58" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3091" r:id="rId59" name="Control 19">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3117" r:id="rId59" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5630,24 +5709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3091" r:id="rId59" name="Control 19"/>
+        <control shapeId="3117" r:id="rId59" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId60" name="Control 18">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3118" r:id="rId60" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5655,24 +5734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId60" name="Control 18"/>
+        <control shapeId="3118" r:id="rId60" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3089" r:id="rId61" name="Control 17">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3119" r:id="rId61" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5680,24 +5759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3089" r:id="rId61" name="Control 17"/>
+        <control shapeId="3119" r:id="rId61" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId62" name="Control 16">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3120" r:id="rId62" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5705,24 +5784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId62" name="Control 16"/>
+        <control shapeId="3120" r:id="rId62" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3087" r:id="rId63" name="Control 15">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3121" r:id="rId63" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5730,24 +5809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3087" r:id="rId63" name="Control 15"/>
+        <control shapeId="3121" r:id="rId63" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3086" r:id="rId64" name="Control 14">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3122" r:id="rId64" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5755,24 +5834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3086" r:id="rId64" name="Control 14"/>
+        <control shapeId="3122" r:id="rId64" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3085" r:id="rId65" name="Control 13">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3123" r:id="rId65" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5780,24 +5859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3085" r:id="rId65" name="Control 13"/>
+        <control shapeId="3123" r:id="rId65" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId66" name="Control 12">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3124" r:id="rId66" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5805,24 +5884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3084" r:id="rId66" name="Control 12"/>
+        <control shapeId="3124" r:id="rId66" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId67" name="Control 11">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3125" r:id="rId67" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5830,24 +5909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3083" r:id="rId67" name="Control 11"/>
+        <control shapeId="3125" r:id="rId67" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId68" name="Control 10">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3126" r:id="rId68" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5855,24 +5934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3082" r:id="rId68" name="Control 10"/>
+        <control shapeId="3126" r:id="rId68" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId69" name="Control 9">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3127" r:id="rId69" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5880,24 +5959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId69" name="Control 9"/>
+        <control shapeId="3127" r:id="rId69" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId70" name="Control 8">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3128" r:id="rId70" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5905,24 +5984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId70" name="Control 8"/>
+        <control shapeId="3128" r:id="rId70" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId71" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3129" r:id="rId71" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5930,24 +6009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId71" name="Control 7"/>
+        <control shapeId="3129" r:id="rId71" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId72" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3130" r:id="rId72" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5955,24 +6034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3078" r:id="rId72" name="Control 6"/>
+        <control shapeId="3130" r:id="rId72" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId73" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3131" r:id="rId73" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -5980,24 +6059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId73" name="Control 5"/>
+        <control shapeId="3131" r:id="rId73" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId74" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3132" r:id="rId74" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -6005,24 +6084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId74" name="Control 4"/>
+        <control shapeId="3132" r:id="rId74" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId75" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3133" r:id="rId75" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -6030,24 +6109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId75" name="Control 3"/>
+        <control shapeId="3133" r:id="rId75" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId76" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3134" r:id="rId76" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -6055,24 +6134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId76" name="Control 2"/>
+        <control shapeId="3134" r:id="rId76" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId77" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+        <control shapeId="3135" r:id="rId77" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -6080,7 +6159,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId77" name="Control 1"/>
+        <control shapeId="3135" r:id="rId77" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
